--- a/Copy of Final_dataset_updated(1).xlsx
+++ b/Copy of Final_dataset_updated(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A9A68C-5353-394F-A997-BCD293BD0237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4DD101-1FA8-F944-A5A2-57F268630A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="2880" windowWidth="23260" windowHeight="12460" activeTab="9" xr2:uid="{8FB94965-4D38-C747-B852-21588DDD3441}"/>
+    <workbookView xWindow="12320" yWindow="820" windowWidth="29400" windowHeight="16740" activeTab="9" xr2:uid="{8FB94965-4D38-C747-B852-21588DDD3441}"/>
   </bookViews>
   <sheets>
     <sheet name="CSK" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="301">
   <si>
     <t>Player</t>
   </si>
@@ -901,9 +901,6 @@
     <t xml:space="preserve">Prabhsimran Singh </t>
   </si>
   <si>
-    <t xml:space="preserve">BR Sharath </t>
-  </si>
-  <si>
     <t>WK</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>Bowling</t>
+  </si>
+  <si>
+    <t>BAT,WK</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEF681B-834B-DA44-A59B-D57CFF470214}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,13 +1434,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="8"/>
@@ -1494,7 +1494,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="8"/>
@@ -1522,13 +1522,13 @@
         <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1554,13 +1554,13 @@
         <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1586,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="8"/>
@@ -1614,13 +1614,13 @@
         <v>7</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1646,13 +1646,13 @@
         <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1665,8 +1665,8 @@
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>93</v>
+      <c r="D9" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="8"/>
@@ -1706,13 +1706,13 @@
         <v>7</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1738,13 +1738,13 @@
         <v>7</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1757,8 +1757,8 @@
       <c r="C12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>93</v>
+      <c r="D12" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E12" s="7">
         <v>730.30449999999996</v>
@@ -1770,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
@@ -1798,13 +1798,13 @@
         <v>7</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1830,13 +1830,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1862,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="8"/>
@@ -1890,13 +1890,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1922,10 +1922,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -1952,10 +1952,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -1982,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -2012,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2044,10 +2044,10 @@
         <v>7</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -2074,10 +2074,10 @@
         <v>7</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -2104,10 +2104,10 @@
         <v>7</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -2134,10 +2134,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J24" s="8"/>
     </row>
@@ -2164,10 +2164,10 @@
         <v>7</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J25" s="8"/>
     </row>
@@ -2184,7 +2184,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2192,11 +2192,12 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2222,13 +2223,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2254,13 +2255,13 @@
         <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2286,7 +2287,7 @@
         <v>86</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="8"/>
@@ -2314,7 +2315,7 @@
         <v>86</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="8"/>
@@ -2330,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="E5" s="4">
         <v>375.0573</v>
@@ -2342,7 +2343,7 @@
         <v>86</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="8"/>
@@ -2370,13 +2371,13 @@
         <v>86</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2390,7 +2391,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="E7" s="4">
         <v>166.10810000000001</v>
@@ -2402,7 +2403,7 @@
         <v>86</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="8"/>
@@ -2430,7 +2431,7 @@
         <v>86</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="8"/>
@@ -2458,7 +2459,7 @@
         <v>86</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="8"/>
@@ -2486,13 +2487,13 @@
         <v>86</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2518,13 +2519,13 @@
         <v>86</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2550,13 +2551,13 @@
         <v>86</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2582,10 +2583,10 @@
         <v>86</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -2612,10 +2613,10 @@
         <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -2642,10 +2643,10 @@
         <v>86</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J15" s="8"/>
     </row>
@@ -2672,10 +2673,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -2702,10 +2703,10 @@
         <v>86</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -2732,10 +2733,10 @@
         <v>86</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -2762,10 +2763,10 @@
         <v>86</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -2779,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEB3CE2-FCF9-034A-BDC7-EA6ACA1AB19D}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2820,238 +2821,238 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>285</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2" s="3">
-        <v>8.3978191428571431</v>
+        <v>95.188133699333321</v>
       </c>
       <c r="F2" s="3">
-        <v>3.1629213333333341</v>
+        <v>5.6995157080000007</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>267</v>
+      <c r="A3" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E3" s="3">
-        <v>10.2567489</v>
+        <v>0.87286600000000003</v>
       </c>
       <c r="F3" s="3">
-        <v>9.996893</v>
+        <v>0.57560164000000003</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4" s="3">
-        <v>11.031472388785049</v>
+        <v>32.330092010666682</v>
       </c>
       <c r="F4" s="3">
-        <v>10.3558962</v>
+        <v>8.8580833259999991</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E5" s="3">
-        <v>9.3044506959999982</v>
+        <v>11.031472388785049</v>
       </c>
       <c r="F5" s="3">
-        <v>6.8750669999999996</v>
+        <v>10.3558962</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" s="3">
-        <v>41.099372645981298</v>
+        <v>3.6560234999999999</v>
       </c>
       <c r="F6" s="3">
-        <v>0.83296200000000009</v>
+        <v>3.3015694999999998</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E7" s="3">
-        <v>10.43117184685714</v>
-      </c>
-      <c r="F7" s="4">
-        <v>6.8750669999999996</v>
+        <v>8.3978191428571431</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.1629213333333341</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>262</v>
+      <c r="A8" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E8" s="3">
-        <v>8.5478900000000007</v>
+        <v>41.099372645981298</v>
       </c>
       <c r="F8" s="3">
-        <v>8.2546300000000006</v>
+        <v>0.83296200000000009</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E9" s="3">
-        <v>9.4134810200000008</v>
+        <v>6.902133504</v>
       </c>
       <c r="F9" s="3">
-        <v>6.4778120399999999</v>
+        <v>4.7997222353600009</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="3">
-        <v>95.188133699333321</v>
+        <v>9.4134810200000008</v>
       </c>
       <c r="F10" s="3">
-        <v>5.6995157080000007</v>
+        <v>6.4778120399999999</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>292</v>
@@ -3059,77 +3060,77 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E11" s="3">
-        <v>0.87286600000000003</v>
+        <v>47.799634909549539</v>
       </c>
       <c r="F11" s="3">
-        <v>0.57560164000000003</v>
+        <v>8.7636380599999999</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.0644432320000004</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.87723034392</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="3">
-        <v>32.330092010666682</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8.8580833259999991</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E13" s="3">
-        <v>3.6560234999999999</v>
+        <v>8.5478900000000007</v>
       </c>
       <c r="F13" s="3">
-        <v>3.3015694999999998</v>
+        <v>8.2546300000000006</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>292</v>
@@ -3137,77 +3138,77 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="E14" s="3">
-        <v>0.87286599999999992</v>
+        <v>4.8667600000000002</v>
       </c>
       <c r="F14" s="3">
-        <v>0.84647300000000003</v>
+        <v>2.08195308144</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>129</v>
+      <c r="A15" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E15" s="3">
-        <v>6.902133504</v>
+        <v>7.4389599999999998</v>
       </c>
       <c r="F15" s="3">
-        <v>4.7997222353600009</v>
+        <v>6.9974299999999996</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>275</v>
+      <c r="A16" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E16" s="3">
-        <v>47.799634909549539</v>
+        <v>10.2567489</v>
       </c>
       <c r="F16" s="3">
-        <v>8.7636380599999999</v>
+        <v>9.996893</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>292</v>
@@ -3215,51 +3216,51 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="3">
-        <v>6.0644432320000004</v>
+        <v>1.195027423529412</v>
       </c>
       <c r="F17" s="3">
-        <v>2.87723034392</v>
+        <v>0.32012089999999999</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E18" s="3">
-        <v>4.8667600000000002</v>
+        <v>9.3044506959999982</v>
       </c>
       <c r="F18" s="3">
-        <v>2.08195308144</v>
+        <v>6.8750669999999996</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>292</v>
@@ -3267,103 +3268,103 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E19" s="3">
-        <v>1.195027423529412</v>
+        <v>14.647463814</v>
       </c>
       <c r="F19" s="3">
-        <v>0.32012089999999999</v>
+        <v>6.8750669999999996</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E20" s="3">
-        <v>14.647463814</v>
+        <v>37.971876993142857</v>
       </c>
       <c r="F20" s="3">
-        <v>6.8750669999999996</v>
+        <v>4.0308037520000006</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E21" s="3">
-        <v>37.971876993142857</v>
+        <v>4.678664704</v>
       </c>
       <c r="F21" s="3">
-        <v>4.0308037520000006</v>
+        <v>3.2339342433599998</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E22" s="3">
-        <v>4.678664704</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3.2339342433599998</v>
+        <v>10.43117184685714</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6.8750669999999996</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>292</v>
@@ -3380,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E23" s="3">
         <v>25.289537732571429</v>
@@ -3392,41 +3393,16 @@
         <v>86</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24" s="3">
-        <v>7.4389599999999998</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6.9974299999999996</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
-    <sortCondition ref="H1:H24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
+    <sortCondition ref="G7:G23"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3435,7 +3411,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3472,13 +3448,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3491,8 +3467,8 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>93</v>
+      <c r="D2" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E2" s="3">
         <v>649.92271747636357</v>
@@ -3504,7 +3480,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -3532,7 +3508,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3560,7 +3536,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -3588,7 +3564,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -3616,7 +3592,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -3644,7 +3620,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -3672,7 +3648,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -3700,13 +3676,13 @@
         <v>24</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3732,7 +3708,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -3760,7 +3736,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -3788,13 +3764,13 @@
         <v>24</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3820,13 +3796,13 @@
         <v>24</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3852,7 +3828,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -3880,13 +3856,13 @@
         <v>24</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3912,13 +3888,13 @@
         <v>24</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3944,10 +3920,10 @@
         <v>24</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -3974,10 +3950,10 @@
         <v>24</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -4004,13 +3980,13 @@
         <v>24</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -4036,10 +4012,10 @@
         <v>24</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -4066,10 +4042,10 @@
         <v>24</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -4096,10 +4072,10 @@
         <v>24</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -4126,10 +4102,10 @@
         <v>24</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -4145,8 +4121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA88F79-47BC-394B-BC63-BF2883277E75}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4184,13 +4160,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4216,13 +4192,13 @@
         <v>33</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4248,13 +4224,13 @@
         <v>33</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4280,13 +4256,13 @@
         <v>33</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4312,13 +4288,13 @@
         <v>33</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4344,13 +4320,13 @@
         <v>33</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4376,13 +4352,13 @@
         <v>33</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4408,13 +4384,13 @@
         <v>33</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4440,13 +4416,13 @@
         <v>33</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4472,13 +4448,13 @@
         <v>33</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4491,8 +4467,8 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>93</v>
+      <c r="D11" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E11" s="3">
         <v>504.30519141102798</v>
@@ -4504,7 +4480,7 @@
         <v>33</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -4532,7 +4508,7 @@
         <v>33</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -4560,7 +4536,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -4588,7 +4564,7 @@
         <v>33</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -4603,8 +4579,8 @@
       <c r="C15" s="3">
         <v>4</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>93</v>
+      <c r="D15" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>65.548402780000004</v>
@@ -4616,7 +4592,7 @@
         <v>33</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -4644,7 +4620,7 @@
         <v>33</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -4672,7 +4648,7 @@
         <v>33</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -4700,10 +4676,10 @@
         <v>33</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -4730,10 +4706,10 @@
         <v>33</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -4760,10 +4736,10 @@
         <v>33</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -4790,10 +4766,10 @@
         <v>33</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -4820,10 +4796,10 @@
         <v>33</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -4850,10 +4826,10 @@
         <v>33</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -4880,10 +4856,10 @@
         <v>33</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J24" s="8"/>
     </row>
@@ -4910,10 +4886,10 @@
         <v>33</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J25" s="8"/>
     </row>
@@ -4940,10 +4916,10 @@
         <v>33</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J26" s="8"/>
     </row>
@@ -4960,7 +4936,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4997,13 +4973,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5029,13 +5005,13 @@
         <v>46</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5061,13 +5037,13 @@
         <v>46</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5093,13 +5069,13 @@
         <v>46</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5125,13 +5101,13 @@
         <v>46</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -5144,8 +5120,8 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>93</v>
+      <c r="D6" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E6" s="3">
         <v>443.94769188999999</v>
@@ -5157,7 +5133,7 @@
         <v>46</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -5172,8 +5148,8 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>93</v>
+      <c r="D7" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E7" s="3">
         <v>64.142049335714276</v>
@@ -5185,7 +5161,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -5213,7 +5189,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -5241,7 +5217,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -5269,7 +5245,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -5297,7 +5273,7 @@
         <v>46</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -5312,8 +5288,8 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>93</v>
+      <c r="D12" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>28.011413213000001</v>
@@ -5325,7 +5301,7 @@
         <v>46</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -5353,7 +5329,7 @@
         <v>46</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -5381,7 +5357,7 @@
         <v>46</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -5409,10 +5385,10 @@
         <v>46</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J15" s="8"/>
     </row>
@@ -5439,10 +5415,10 @@
         <v>46</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -5469,10 +5445,10 @@
         <v>46</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -5499,10 +5475,10 @@
         <v>46</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -5529,10 +5505,10 @@
         <v>46</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -5559,10 +5535,10 @@
         <v>46</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -5589,10 +5565,10 @@
         <v>46</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -5619,10 +5595,10 @@
         <v>46</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -5639,7 +5615,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5677,13 +5653,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5709,330 +5685,326 @@
         <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="6">
+        <v>57.622410219999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>13.942278960888901</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>32.507934066958327</v>
-      </c>
-      <c r="F3" s="3">
-        <v>21.659989920000001</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3">
-        <v>49.659634315000012</v>
+        <v>158.53203508090911</v>
       </c>
       <c r="F4" s="3">
-        <v>26.974153040000001</v>
+        <v>54.971579140000003</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3">
-        <v>47.140296704999997</v>
+        <v>20.976674500000001</v>
       </c>
       <c r="F5" s="3">
-        <v>15.40713815</v>
+        <v>23.562132999999999</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>299</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
+      <c r="A6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="6">
-        <v>57.622410219999999</v>
-      </c>
-      <c r="F6" s="6">
-        <v>13.942278960888901</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="3">
+        <v>266.77674097263161</v>
+      </c>
+      <c r="F6" s="3">
+        <v>108.16252812</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E7" s="3">
-        <v>158.53203508090911</v>
+        <v>104.55548275263639</v>
       </c>
       <c r="F7" s="3">
-        <v>54.971579140000003</v>
+        <v>43.06691739</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>293</v>
+      <c r="H7" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>418.92594151615378</v>
+        <v>65.562711181130425</v>
       </c>
       <c r="F8" s="3">
-        <v>61.404408699999998</v>
+        <v>41.720768280000001</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>293</v>
+      <c r="H8" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3">
-        <v>266.77674097263161</v>
+        <v>32.507934066958327</v>
       </c>
       <c r="F9" s="3">
-        <v>108.16252812</v>
+        <v>21.659989920000001</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>20.976674500000001</v>
+        <v>464.2252206031531</v>
       </c>
       <c r="F10" s="3">
-        <v>23.562132999999999</v>
+        <v>92.901676839999993</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E11" s="3">
-        <v>104.55548275263639</v>
+        <v>111.10994061333329</v>
       </c>
       <c r="F11" s="3">
-        <v>43.06691739</v>
+        <v>60.796405077142857</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>65.562711181130425</v>
+        <v>49.659634315000012</v>
       </c>
       <c r="F12" s="3">
-        <v>41.720768280000001</v>
+        <v>26.974153040000001</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E13" s="3">
-        <v>464.2252206031531</v>
+        <v>418.92594151615378</v>
       </c>
       <c r="F13" s="3">
-        <v>92.901676839999993</v>
+        <v>61.404408699999998</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="3" t="s">
         <v>292</v>
       </c>
       <c r="I13" s="3"/>
@@ -6040,98 +6012,102 @@
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>111.10994061333329</v>
+        <v>47.140296704999997</v>
       </c>
       <c r="F14" s="3">
-        <v>60.796405077142857</v>
+        <v>15.40713815</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="C15" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E15" s="4">
-        <v>-22.2</v>
+        <v>-4.6832700000000003</v>
       </c>
       <c r="F15" s="3">
-        <v>-14.635045249999999</v>
+        <v>-3.1027458399999999</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>293</v>
+      <c r="H15" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E16" s="4">
-        <v>-4.6832700000000003</v>
+        <v>10.26314</v>
       </c>
       <c r="F16" s="3">
-        <v>-3.1027458399999999</v>
+        <v>2.875026874</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4">
         <v>8</v>
@@ -6140,25 +6116,25 @@
         <v>173</v>
       </c>
       <c r="E17" s="4">
-        <v>10.26314</v>
+        <v>-0.43758000000000002</v>
       </c>
       <c r="F17" s="3">
-        <v>2.875026874</v>
+        <v>-1.085E-2</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -6170,49 +6146,49 @@
         <v>173</v>
       </c>
       <c r="E18" s="4">
-        <v>-0.43758000000000002</v>
+        <v>-15.348100000000001</v>
       </c>
       <c r="F18" s="3">
-        <v>-1.085E-2</v>
+        <v>-9.9025894400000016</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E19" s="4">
-        <v>-15.348100000000001</v>
+        <v>-22.2</v>
       </c>
       <c r="F19" s="3">
-        <v>-9.9025894400000016</v>
+        <v>-14.635045249999999</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="3" t="s">
         <v>292</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -6239,10 +6215,10 @@
         <v>52</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -6269,46 +6245,46 @@
         <v>52</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E22" s="4">
-        <v>13.664680000000001</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1.3358334589999989</v>
+        <v>-3.1878299999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-1.1179520000000001</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>18</v>
@@ -6320,28 +6296,28 @@
         <v>173</v>
       </c>
       <c r="E23" s="4">
-        <v>-3.1878299999999999</v>
-      </c>
-      <c r="F23" s="4">
-        <v>-1.1179520000000001</v>
+        <v>-1.5064200000000001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-0.23227468800000009</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
@@ -6350,55 +6326,55 @@
         <v>173</v>
       </c>
       <c r="E24" s="4">
-        <v>-1.5064200000000001</v>
+        <v>-9.3119300000000003</v>
       </c>
       <c r="F24" s="3">
-        <v>-0.23227468800000009</v>
+        <v>-4.6553019260000008</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E25" s="4">
-        <v>-9.3119300000000003</v>
+        <v>13.664680000000001</v>
       </c>
       <c r="F25" s="3">
-        <v>-4.6553019260000008</v>
+        <v>1.3358334589999989</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J25" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I25">
-    <sortCondition ref="D1:D25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="C1:C25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6408,8 +6384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADD0320-A946-FF45-B492-A38FC4F9602C}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6446,13 +6422,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6478,13 +6454,13 @@
         <v>58</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -6510,13 +6486,13 @@
         <v>58</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -6542,13 +6518,13 @@
         <v>58</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -6574,13 +6550,13 @@
         <v>58</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -6606,13 +6582,13 @@
         <v>58</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -6625,8 +6601,8 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>93</v>
+      <c r="D7" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E7" s="6">
         <v>16.040236549999999</v>
@@ -6638,7 +6614,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -6666,7 +6642,7 @@
         <v>58</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -6694,7 +6670,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -6722,7 +6698,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -6750,7 +6726,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -6766,7 +6742,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="E12" s="4">
         <v>14.5832</v>
@@ -6778,7 +6754,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -6794,7 +6770,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="E13" s="4">
         <v>29.62987</v>
@@ -6806,7 +6782,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -6834,10 +6810,10 @@
         <v>58</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -6864,10 +6840,10 @@
         <v>58</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J15" s="8"/>
     </row>
@@ -6894,10 +6870,10 @@
         <v>58</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -6924,10 +6900,10 @@
         <v>58</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -6954,10 +6930,10 @@
         <v>58</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -6984,10 +6960,10 @@
         <v>58</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -7014,10 +6990,10 @@
         <v>58</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -7044,10 +7020,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -7074,10 +7050,10 @@
         <v>58</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -7104,10 +7080,10 @@
         <v>58</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -7123,8 +7099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7473F-9B7A-E944-B19C-C5DE3F02910F}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7161,13 +7137,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7193,13 +7169,13 @@
         <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -7225,13 +7201,13 @@
         <v>64</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -7257,13 +7233,13 @@
         <v>64</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -7289,13 +7265,13 @@
         <v>64</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -7321,13 +7297,13 @@
         <v>64</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -7353,13 +7329,13 @@
         <v>64</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -7385,13 +7361,13 @@
         <v>64</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -7417,13 +7393,13 @@
         <v>64</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -7449,13 +7425,13 @@
         <v>64</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -7481,13 +7457,13 @@
         <v>64</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -7500,8 +7476,8 @@
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>93</v>
+      <c r="D12" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E12" s="6">
         <v>183.07987302230771</v>
@@ -7513,7 +7489,7 @@
         <v>64</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -7528,8 +7504,8 @@
       <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>93</v>
+      <c r="D13" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E13" s="6">
         <v>127.50130971</v>
@@ -7541,7 +7517,7 @@
         <v>64</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -7569,7 +7545,7 @@
         <v>64</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -7597,7 +7573,7 @@
         <v>64</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -7625,7 +7601,7 @@
         <v>64</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -7653,7 +7629,7 @@
         <v>64</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -7681,7 +7657,7 @@
         <v>64</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -7709,10 +7685,10 @@
         <v>64</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -7739,10 +7715,10 @@
         <v>64</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -7769,10 +7745,10 @@
         <v>64</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -7799,10 +7775,10 @@
         <v>64</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -7829,10 +7805,10 @@
         <v>64</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -7859,10 +7835,10 @@
         <v>64</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J24" s="8"/>
     </row>
@@ -7889,10 +7865,10 @@
         <v>64</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J25" s="8"/>
     </row>
@@ -7909,7 +7885,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7947,277 +7923,265 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="4">
+        <v>121.41670000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>97.855911840000005</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.6867800000000006</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9.5501072800000006</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1087.2670000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>133.6576</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="4">
+        <v>120.8171</v>
+      </c>
+      <c r="F5" s="4">
+        <v>19.237172220000001</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="4">
+        <v>138.0744</v>
+      </c>
+      <c r="F6" s="4">
+        <v>88.992590000000007</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>77.716705562179484</v>
+      </c>
+      <c r="F7" s="4">
+        <v>21.392603739999998</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J7" s="14" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3">
-        <v>77.716705562179484</v>
-      </c>
-      <c r="F2" s="4">
-        <v>21.392603739999998</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>20.728632924999999</v>
-      </c>
-      <c r="F3" s="3">
-        <v>22.694280766666669</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3">
-        <v>16.143653787071429</v>
-      </c>
-      <c r="F4" s="3">
-        <v>7.6934536242857119</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="3">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3">
-        <v>145.633904317874</v>
-      </c>
-      <c r="F5" s="4">
-        <v>22.823989999999998</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="3">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12.80762159642857</v>
-      </c>
-      <c r="F6" s="3">
-        <v>20.610523807142901</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="4">
-        <v>121.41670000000001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>97.855911840000005</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="E8" s="4">
-        <v>120.9757</v>
-      </c>
-      <c r="F8" s="3">
-        <v>65.43676755846154</v>
+        <v>124.9186</v>
+      </c>
+      <c r="F8" s="4">
+        <v>51.11976276</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="4">
-        <v>120.8171</v>
-      </c>
-      <c r="F9" s="4">
-        <v>19.237172220000001</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16.143653787071429</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.6934536242857119</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+        <v>291</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="4">
-        <v>8.6867800000000006</v>
-      </c>
-      <c r="F10" s="4">
-        <v>9.5501072800000006</v>
+        <v>120.9757</v>
+      </c>
+      <c r="F10" s="3">
+        <v>65.43676755846154</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>76</v>
@@ -8229,197 +8193,209 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="4">
-        <v>138.0744</v>
-      </c>
-      <c r="F11" s="4">
-        <v>88.992590000000007</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20.728632924999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>22.694280766666669</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1087.2670000000001</v>
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>145.633904317874</v>
       </c>
       <c r="F12" s="4">
-        <v>133.6576</v>
-      </c>
-      <c r="G12" s="4" t="s">
+        <v>22.823989999999998</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+        <v>291</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="4">
-        <v>124.9186</v>
-      </c>
-      <c r="F13" s="4">
-        <v>51.11976276</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12.80762159642857</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20.610523807142901</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <v>291</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E14" s="4">
-        <v>-15.775040000000001</v>
+        <v>43.731870000000001</v>
       </c>
       <c r="F14" s="3">
-        <v>-12.9510688</v>
+        <v>33.866449119999999</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E15" s="4">
-        <v>2.1605780000000001</v>
+        <v>-15.775040000000001</v>
       </c>
       <c r="F15" s="3">
-        <v>-3.141650678</v>
+        <v>-12.9510688</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E16" s="4">
-        <v>3.830991</v>
+        <v>-6.7200699999999998</v>
       </c>
       <c r="F16" s="3">
-        <v>-3.5086671900000002</v>
+        <v>-2.521690006</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="C17" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E17" s="4">
-        <v>43.731870000000001</v>
+        <v>2.1605780000000001</v>
       </c>
       <c r="F17" s="3">
-        <v>33.866449119999999</v>
+        <v>-3.141650678</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>76</v>
@@ -8428,46 +8404,46 @@
         <v>292</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E18" s="4">
-        <v>-6.7200699999999998</v>
+        <v>-6.0766600000000004</v>
       </c>
       <c r="F18" s="3">
-        <v>-2.521690006</v>
+        <v>-14.811352250000001</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
@@ -8476,40 +8452,40 @@
         <v>173</v>
       </c>
       <c r="E19" s="4">
-        <v>-6.0766600000000004</v>
+        <v>-0.39459</v>
       </c>
       <c r="F19" s="3">
-        <v>-14.811352250000001</v>
+        <v>-0.28415538000000001</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E20" s="4">
-        <v>-0.39459</v>
+        <v>3.830991</v>
       </c>
       <c r="F20" s="3">
-        <v>-0.28415538000000001</v>
+        <v>-3.5086671900000002</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>76</v>
@@ -8518,7 +8494,7 @@
         <v>292</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -8545,16 +8521,16 @@
         <v>76</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J21" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
-    <sortCondition ref="D1:D21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition ref="C1:C21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8565,7 +8541,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8603,13 +8579,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8635,13 +8611,13 @@
         <v>82</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8667,13 +8643,13 @@
         <v>82</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -8699,13 +8675,13 @@
         <v>82</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -8731,7 +8707,7 @@
         <v>82</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -8759,7 +8735,7 @@
         <v>82</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -8774,8 +8750,8 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>93</v>
+      <c r="D7" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E7" s="3">
         <v>611.2756063423808</v>
@@ -8787,7 +8763,7 @@
         <v>82</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -8815,7 +8791,7 @@
         <v>82</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -8830,8 +8806,8 @@
       <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>93</v>
+      <c r="D9" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>44.294270999999988</v>
@@ -8843,7 +8819,7 @@
         <v>82</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -8871,7 +8847,7 @@
         <v>82</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -8899,7 +8875,7 @@
         <v>82</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -8927,10 +8903,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J12" s="8"/>
     </row>
@@ -8957,10 +8933,10 @@
         <v>82</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -8987,10 +8963,10 @@
         <v>82</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -9017,10 +8993,10 @@
         <v>82</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J15" s="8"/>
     </row>
@@ -9047,10 +9023,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -9077,10 +9053,10 @@
         <v>82</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -9107,10 +9083,10 @@
         <v>82</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -9137,10 +9113,10 @@
         <v>82</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -9167,10 +9143,10 @@
         <v>82</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J20" s="8"/>
     </row>
